--- a/samples/SAMPLE_master_data.xlsx
+++ b/samples/SAMPLE_master_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KasunJ\MCP\Nexsus1\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C2376-E65B-4EE8-AB1B-9F64692EAC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3B2133-01D0-4327-9A5E-2965FE2AB5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11712" yWindow="12852" windowWidth="23256" windowHeight="13896" xr2:uid="{41739490-1762-4109-9BC6-68E2380E6FCC}"/>
   </bookViews>
@@ -4326,7 +4326,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9161764-C3E7-468A-8DAB-1C86EF1AB771}" name="master" displayName="master" ref="A1:AA561" totalsRowShown="0" headerRowDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:AA561" xr:uid="{B9161764-C3E7-468A-8DAB-1C86EF1AB771}"/>
+  <autoFilter ref="A1:AA561" xr:uid="{B9161764-C3E7-468A-8DAB-1C86EF1AB771}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="59140"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Cost of Sales"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{D28C76DC-4F50-4860-8A57-FF757C206952}" name="id" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{0D75F557-9722-4440-9BC9-84299588F075}" name="Gllinkname"/>
@@ -4680,7 +4691,7 @@
   <dimension ref="A1:AA561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4774,7 +4785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66">
         <v>11110</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <v>11150</v>
       </c>
@@ -4916,7 +4927,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>11151</v>
       </c>
@@ -4987,7 +4998,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67">
         <v>10005</v>
       </c>
@@ -5058,7 +5069,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68">
         <v>10006</v>
       </c>
@@ -5129,7 +5140,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67">
         <v>111115</v>
       </c>
@@ -5200,7 +5211,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>111701</v>
       </c>
@@ -5271,7 +5282,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67">
         <v>11112</v>
       </c>
@@ -5342,7 +5353,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69">
         <v>10010</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70">
         <v>10203</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69">
         <v>10200</v>
       </c>
@@ -5555,7 +5566,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70">
         <v>11300</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69">
         <v>11320</v>
       </c>
@@ -5697,7 +5708,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67">
         <v>10204</v>
       </c>
@@ -5768,7 +5779,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>111702</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67">
         <v>11303</v>
       </c>
@@ -5910,7 +5921,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>11125</v>
       </c>
@@ -5981,7 +5992,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67">
         <v>11310</v>
       </c>
@@ -6052,7 +6063,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>11700</v>
       </c>
@@ -6123,7 +6134,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67">
         <v>11702</v>
       </c>
@@ -6194,7 +6205,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>11704</v>
       </c>
@@ -6265,7 +6276,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67">
         <v>11714</v>
       </c>
@@ -6336,7 +6347,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>11734</v>
       </c>
@@ -6407,7 +6418,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67">
         <v>11724</v>
       </c>
@@ -6478,7 +6489,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>11703</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67">
         <v>11801</v>
       </c>
@@ -6620,7 +6631,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>11802</v>
       </c>
@@ -6691,7 +6702,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67">
         <v>11803</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>11805</v>
       </c>
@@ -6833,7 +6844,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67">
         <v>11808</v>
       </c>
@@ -6904,7 +6915,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="68">
         <v>11810</v>
       </c>
@@ -6975,7 +6986,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67">
         <v>11811</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="68">
         <v>18506</v>
       </c>
@@ -7117,7 +7128,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67">
         <v>18516</v>
       </c>
@@ -7188,7 +7199,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="68">
         <v>18526</v>
       </c>
@@ -7259,7 +7270,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="67">
         <v>12610</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>12620</v>
       </c>
@@ -7401,7 +7412,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67">
         <v>12210</v>
       </c>
@@ -7472,7 +7483,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>12220</v>
       </c>
@@ -7543,7 +7554,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67">
         <v>12840</v>
       </c>
@@ -7614,7 +7625,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68">
         <v>12710</v>
       </c>
@@ -7685,7 +7696,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="67">
         <v>12720</v>
       </c>
@@ -7756,7 +7767,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="68">
         <v>12810</v>
       </c>
@@ -7827,7 +7838,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="67">
         <v>12820</v>
       </c>
@@ -7898,7 +7909,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>12850</v>
       </c>
@@ -7969,7 +7980,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67">
         <v>12920</v>
       </c>
@@ -8040,7 +8051,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>12930</v>
       </c>
@@ -8111,7 +8122,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="67">
         <v>12921</v>
       </c>
@@ -8182,7 +8193,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="68">
         <v>12931</v>
       </c>
@@ -8253,7 +8264,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="67">
         <v>20200</v>
       </c>
@@ -8324,7 +8335,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>20205</v>
       </c>
@@ -8395,7 +8406,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="67">
         <v>11312</v>
       </c>
@@ -8466,7 +8477,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>20209</v>
       </c>
@@ -8537,7 +8548,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="67">
         <v>20207</v>
       </c>
@@ -8608,7 +8619,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="68">
         <v>21210</v>
       </c>
@@ -8679,7 +8690,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="67">
         <v>20206</v>
       </c>
@@ -8750,7 +8761,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>21300</v>
       </c>
@@ -8821,7 +8832,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="67">
         <v>21320</v>
       </c>
@@ -8892,7 +8903,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68">
         <v>21310</v>
       </c>
@@ -8963,7 +8974,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="67">
         <v>21410</v>
       </c>
@@ -9034,7 +9045,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>21420</v>
       </c>
@@ -9105,7 +9116,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67">
         <v>21430</v>
       </c>
@@ -9176,7 +9187,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>21470</v>
       </c>
@@ -9247,7 +9258,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="67">
         <v>21450</v>
       </c>
@@ -9318,7 +9329,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68">
         <v>21460</v>
       </c>
@@ -9389,7 +9400,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="67">
         <v>21501</v>
       </c>
@@ -9460,7 +9471,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="68">
         <v>21502</v>
       </c>
@@ -9531,7 +9542,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="67">
         <v>21503</v>
       </c>
@@ -9602,7 +9613,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="68">
         <v>21504</v>
       </c>
@@ -9673,7 +9684,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="67">
         <v>21505</v>
       </c>
@@ -9744,7 +9755,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="68">
         <v>21506</v>
       </c>
@@ -9815,7 +9826,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="67">
         <v>26241</v>
       </c>
@@ -9886,7 +9897,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="68">
         <v>26251</v>
       </c>
@@ -9957,7 +9968,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67">
         <v>26261</v>
       </c>
@@ -10028,7 +10039,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="68">
         <v>26271</v>
       </c>
@@ -10099,7 +10110,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="67">
         <v>21550</v>
       </c>
@@ -10170,7 +10181,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="68">
         <v>21600</v>
       </c>
@@ -10241,7 +10252,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67">
         <v>21601</v>
       </c>
@@ -10312,7 +10323,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="68">
         <v>21603</v>
       </c>
@@ -10383,7 +10394,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="67">
         <v>21602</v>
       </c>
@@ -10454,7 +10465,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="68">
         <v>860</v>
       </c>
@@ -10525,7 +10536,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="67">
         <v>21701</v>
       </c>
@@ -10596,7 +10607,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="68">
         <v>21702</v>
       </c>
@@ -10667,7 +10678,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="67">
         <v>21703</v>
       </c>
@@ -10738,7 +10749,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="68">
         <v>21704</v>
       </c>
@@ -10809,7 +10820,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="67">
         <v>21705</v>
       </c>
@@ -10880,7 +10891,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="68">
         <v>21711</v>
       </c>
@@ -10951,7 +10962,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="67">
         <v>21800</v>
       </c>
@@ -11022,7 +11033,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="68">
         <v>22203</v>
       </c>
@@ -11093,7 +11104,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="67">
         <v>22204</v>
       </c>
@@ -11164,7 +11175,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="68">
         <v>22205</v>
       </c>
@@ -11235,7 +11246,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="67">
         <v>22208</v>
       </c>
@@ -11306,7 +11317,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="68">
         <v>22209</v>
       </c>
@@ -11377,7 +11388,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="67">
         <v>22210</v>
       </c>
@@ -11448,7 +11459,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="68">
         <v>11744</v>
       </c>
@@ -11519,7 +11530,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="67">
         <v>11754</v>
       </c>
@@ -11590,7 +11601,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="68">
         <v>11764</v>
       </c>
@@ -11661,7 +11672,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="67">
         <v>11774</v>
       </c>
@@ -11732,7 +11743,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="68">
         <v>22207</v>
       </c>
@@ -11803,7 +11814,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="67">
         <v>26001</v>
       </c>
@@ -11874,7 +11885,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="68">
         <v>26002</v>
       </c>
@@ -11945,7 +11956,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="67">
         <v>26003</v>
       </c>
@@ -12016,7 +12027,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="68">
         <v>26004</v>
       </c>
@@ -12087,7 +12098,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="67">
         <v>26021</v>
       </c>
@@ -12158,7 +12169,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="68">
         <v>26042</v>
       </c>
@@ -12229,7 +12240,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="67">
         <v>26005</v>
       </c>
@@ -12300,7 +12311,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="68">
         <v>26006</v>
       </c>
@@ -12371,7 +12382,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="67">
         <v>26007</v>
       </c>
@@ -12442,7 +12453,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="68">
         <v>26008</v>
       </c>
@@ -12513,7 +12524,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="67">
         <v>26009</v>
       </c>
@@ -12584,7 +12595,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="68">
         <v>26022</v>
       </c>
@@ -12655,7 +12666,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="67">
         <v>26031</v>
       </c>
@@ -12726,7 +12737,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="68">
         <v>26052</v>
       </c>
@@ -12797,7 +12808,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="67">
         <v>26032</v>
       </c>
@@ -12868,7 +12879,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="68">
         <v>26010</v>
       </c>
@@ -12939,7 +12950,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="67">
         <v>26041</v>
       </c>
@@ -13010,7 +13021,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="68">
         <v>26062</v>
       </c>
@@ -13081,7 +13092,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="67">
         <v>26051</v>
       </c>
@@ -13152,7 +13163,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="68">
         <v>26072</v>
       </c>
@@ -13223,7 +13234,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="67">
         <v>26071</v>
       </c>
@@ -13294,7 +13305,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="68">
         <v>26081</v>
       </c>
@@ -13365,7 +13376,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="67">
         <v>26091</v>
       </c>
@@ -13436,7 +13447,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="68">
         <v>26141</v>
       </c>
@@ -13507,7 +13518,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="67">
         <v>26151</v>
       </c>
@@ -13578,7 +13589,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="68">
         <v>26082</v>
       </c>
@@ -13649,7 +13660,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="67">
         <v>26111</v>
       </c>
@@ -13720,7 +13731,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="68">
         <v>26121</v>
       </c>
@@ -13791,7 +13802,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="67">
         <v>26131</v>
       </c>
@@ -13862,7 +13873,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="68">
         <v>26161</v>
       </c>
@@ -13933,7 +13944,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="67">
         <v>26171</v>
       </c>
@@ -14004,7 +14015,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="68">
         <v>26181</v>
       </c>
@@ -14075,7 +14086,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="67">
         <v>26191</v>
       </c>
@@ -14146,7 +14157,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="68">
         <v>26201</v>
       </c>
@@ -14217,7 +14228,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="67">
         <v>26211</v>
       </c>
@@ -14288,7 +14299,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="68">
         <v>26221</v>
       </c>
@@ -14359,7 +14370,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="67">
         <v>26231</v>
       </c>
@@ -14430,7 +14441,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="68">
         <v>26281</v>
       </c>
@@ -14501,7 +14512,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="67">
         <v>26291</v>
       </c>
@@ -14572,7 +14583,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="68">
         <v>26301</v>
       </c>
@@ -14643,7 +14654,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="67">
         <v>26311</v>
       </c>
@@ -14714,7 +14725,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="68">
         <v>26321</v>
       </c>
@@ -14785,7 +14796,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="67">
         <v>26331</v>
       </c>
@@ -14856,7 +14867,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="68">
         <v>26341</v>
       </c>
@@ -14927,7 +14938,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="67">
         <v>26351</v>
       </c>
@@ -14998,7 +15009,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="68">
         <v>26361</v>
       </c>
@@ -15069,7 +15080,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="67">
         <v>26371</v>
       </c>
@@ -15140,7 +15151,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="68">
         <v>26381</v>
       </c>
@@ -15211,7 +15222,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="67">
         <v>26391</v>
       </c>
@@ -15282,7 +15293,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="68">
         <v>26401</v>
       </c>
@@ -15353,7 +15364,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="67">
         <v>26411</v>
       </c>
@@ -15424,7 +15435,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="68">
         <v>26421</v>
       </c>
@@ -15495,7 +15506,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="70">
         <v>26431</v>
       </c>
@@ -15566,7 +15577,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="71">
         <v>26441</v>
       </c>
@@ -15637,7 +15648,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="72">
         <v>26451</v>
       </c>
@@ -15708,7 +15719,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="68">
         <v>30010</v>
       </c>
@@ -15779,7 +15790,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="67">
         <v>10190</v>
       </c>
@@ -15850,7 +15861,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="68">
         <v>999999</v>
       </c>
@@ -15921,7 +15932,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="67">
         <v>30800</v>
       </c>
@@ -15992,7 +16003,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="68">
         <v>30801</v>
       </c>
@@ -16063,7 +16074,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="67">
         <v>30900</v>
       </c>
@@ -16134,7 +16145,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="68">
         <v>42000</v>
       </c>
@@ -16213,7 +16224,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="67">
         <v>43100</v>
       </c>
@@ -16292,7 +16303,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="68">
         <v>43200</v>
       </c>
@@ -16371,7 +16382,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="67">
         <v>43300</v>
       </c>
@@ -16450,7 +16461,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="68">
         <v>43400</v>
       </c>
@@ -16529,7 +16540,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="67">
         <v>43600</v>
       </c>
@@ -16608,7 +16619,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="68">
         <v>43700</v>
       </c>
@@ -16687,7 +16698,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="73">
         <v>41110</v>
       </c>
@@ -16766,7 +16777,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="74">
         <v>41111</v>
       </c>
@@ -16845,7 +16856,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="73">
         <v>43900</v>
       </c>
@@ -16924,7 +16935,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="68">
         <v>41170</v>
       </c>
@@ -17003,7 +17014,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="67">
         <v>41120</v>
       </c>
@@ -17082,7 +17093,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="68">
         <v>41130</v>
       </c>
@@ -17161,7 +17172,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="67">
         <v>41140</v>
       </c>
@@ -17240,7 +17251,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="68">
         <v>41150</v>
       </c>
@@ -17319,7 +17330,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="73">
         <v>42001</v>
       </c>
@@ -17398,7 +17409,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="68">
         <v>49998</v>
       </c>
@@ -17475,7 +17486,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="67">
         <v>49999</v>
       </c>
@@ -17552,7 +17563,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="68">
         <v>44000</v>
       </c>
@@ -17629,7 +17640,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="67">
         <v>44020</v>
       </c>
@@ -17706,7 +17717,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="75">
         <v>44001</v>
       </c>
@@ -17783,7 +17794,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="67">
         <v>45010</v>
       </c>
@@ -17860,7 +17871,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="68">
         <v>44010</v>
       </c>
@@ -17937,7 +17948,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="67">
         <v>44012</v>
       </c>
@@ -18014,7 +18025,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="68">
         <v>44013</v>
       </c>
@@ -18091,7 +18102,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="67">
         <v>45000</v>
       </c>
@@ -18168,7 +18179,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="68">
         <v>81000</v>
       </c>
@@ -18245,7 +18256,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="67">
         <v>81200</v>
       </c>
@@ -18322,7 +18333,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="68">
         <v>82300</v>
       </c>
@@ -18399,7 +18410,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="67">
         <v>50100</v>
       </c>
@@ -18476,7 +18487,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="68">
         <v>50200</v>
       </c>
@@ -18553,7 +18564,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="67">
         <v>51100</v>
       </c>
@@ -18630,7 +18641,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="68">
         <v>52100</v>
       </c>
@@ -18707,7 +18718,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="67">
         <v>52111</v>
       </c>
@@ -18784,7 +18795,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="68">
         <v>61254</v>
       </c>
@@ -18861,7 +18872,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="67">
         <v>62211</v>
       </c>
@@ -18938,7 +18949,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="68">
         <v>52112</v>
       </c>
@@ -19015,7 +19026,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="67">
         <v>52115</v>
       </c>
@@ -19092,7 +19103,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="68">
         <v>52116</v>
       </c>
@@ -19169,7 +19180,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="67">
         <v>52117</v>
       </c>
@@ -19246,7 +19257,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="68">
         <v>52127</v>
       </c>
@@ -19323,7 +19334,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="67">
         <v>52137</v>
       </c>
@@ -19400,7 +19411,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="68">
         <v>53100</v>
       </c>
@@ -19477,7 +19488,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="67">
         <v>53200</v>
       </c>
@@ -19554,7 +19565,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="68">
         <v>53201</v>
       </c>
@@ -19631,7 +19642,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="67">
         <v>53202</v>
       </c>
@@ -19708,7 +19719,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="68">
         <v>53212</v>
       </c>
@@ -19785,7 +19796,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="67">
         <v>11302</v>
       </c>
@@ -19862,7 +19873,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="68">
         <v>53300</v>
       </c>
@@ -19939,7 +19950,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="67">
         <v>54000</v>
       </c>
@@ -20016,7 +20027,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="68">
         <v>56000</v>
       </c>
@@ -20093,7 +20104,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="67">
         <v>57000</v>
       </c>
@@ -20170,7 +20181,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="68">
         <v>61150</v>
       </c>
@@ -20247,7 +20258,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="67">
         <v>61120</v>
       </c>
@@ -20324,7 +20335,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="68">
         <v>58000</v>
       </c>
@@ -20401,7 +20412,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="67">
         <v>58090</v>
       </c>
@@ -20478,7 +20489,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="68">
         <v>53210</v>
       </c>
@@ -20555,7 +20566,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="67">
         <v>53221</v>
       </c>
@@ -20632,7 +20643,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="68">
         <v>53211</v>
       </c>
@@ -20709,7 +20720,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="67">
         <v>58091</v>
       </c>
@@ -20786,7 +20797,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="68">
         <v>58100</v>
       </c>
@@ -20863,7 +20874,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="67">
         <v>59000</v>
       </c>
@@ -20940,7 +20951,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="68">
         <v>59100</v>
       </c>
@@ -21017,7 +21028,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="67">
         <v>59110</v>
       </c>
@@ -21094,7 +21105,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="68">
         <v>59120</v>
       </c>
@@ -21105,10 +21116,10 @@
         <v>26</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>91</v>
@@ -21171,7 +21182,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="67">
         <v>59160</v>
       </c>
@@ -21182,10 +21193,10 @@
         <v>26</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>91</v>
@@ -21259,7 +21270,7 @@
         <v>26</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>19</v>
@@ -21325,7 +21336,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="67">
         <v>59150</v>
       </c>
@@ -21336,10 +21347,10 @@
         <v>26</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>91</v>
@@ -21402,7 +21413,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="68">
         <v>498</v>
       </c>
@@ -21479,7 +21490,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="67">
         <v>499</v>
       </c>
@@ -21556,7 +21567,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="68">
         <v>61005</v>
       </c>
@@ -21633,7 +21644,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="67">
         <v>61025</v>
       </c>
@@ -21710,7 +21721,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="68">
         <v>61026</v>
       </c>
@@ -21787,7 +21798,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="67">
         <v>61011</v>
       </c>
@@ -21864,7 +21875,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="68">
         <v>61012</v>
       </c>
@@ -21941,7 +21952,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="67">
         <v>61013</v>
       </c>
@@ -22018,7 +22029,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="68">
         <v>61014</v>
       </c>
@@ -22095,7 +22106,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="67">
         <v>61015</v>
       </c>
@@ -22172,7 +22183,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="68">
         <v>61017</v>
       </c>
@@ -22249,7 +22260,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="67">
         <v>61260</v>
       </c>
@@ -22326,7 +22337,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="68">
         <v>61020</v>
       </c>
@@ -22403,7 +22414,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="67">
         <v>61140</v>
       </c>
@@ -22480,7 +22491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="68">
         <v>61030</v>
       </c>
@@ -22557,7 +22568,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="67">
         <v>61040</v>
       </c>
@@ -22634,7 +22645,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="68">
         <v>61050</v>
       </c>
@@ -22711,7 +22722,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="67">
         <v>61058</v>
       </c>
@@ -22788,7 +22799,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="68">
         <v>61060</v>
       </c>
@@ -22865,7 +22876,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="67">
         <v>61064</v>
       </c>
@@ -22942,7 +22953,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="76">
         <v>61070</v>
       </c>
@@ -23019,7 +23030,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="77">
         <v>61080</v>
       </c>
@@ -23096,7 +23107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="68">
         <v>61085</v>
       </c>
@@ -23173,7 +23184,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="78">
         <v>61086</v>
       </c>
@@ -23250,7 +23261,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="78">
         <v>61087</v>
       </c>
@@ -23327,7 +23338,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="78">
         <v>61088</v>
       </c>
@@ -23404,7 +23415,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="78">
         <v>61089</v>
       </c>
@@ -23481,7 +23492,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="67">
         <v>61169</v>
       </c>
@@ -23558,7 +23569,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="68">
         <v>61171</v>
       </c>
@@ -23635,7 +23646,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="67">
         <v>61172</v>
       </c>
@@ -23712,7 +23723,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="68">
         <v>61179</v>
       </c>
@@ -23789,7 +23800,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="67">
         <v>61192</v>
       </c>
@@ -23866,7 +23877,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="68">
         <v>61202</v>
       </c>
@@ -23943,7 +23954,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="67">
         <v>61212</v>
       </c>
@@ -24020,7 +24031,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="68">
         <v>61232</v>
       </c>
@@ -24097,7 +24108,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="67">
         <v>61242</v>
       </c>
@@ -24174,7 +24185,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="68">
         <v>61262</v>
       </c>
@@ -24251,7 +24262,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="67">
         <v>61222</v>
       </c>
@@ -24328,7 +24339,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="68">
         <v>61155</v>
       </c>
@@ -24405,7 +24416,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="67">
         <v>61272</v>
       </c>
@@ -24482,7 +24493,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="68">
         <v>61183</v>
       </c>
@@ -24559,7 +24570,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="67">
         <v>61193</v>
       </c>
@@ -24636,7 +24647,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="68">
         <v>61203</v>
       </c>
@@ -24713,7 +24724,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="67">
         <v>61162</v>
       </c>
@@ -24790,7 +24801,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="68">
         <v>61213</v>
       </c>
@@ -24867,7 +24878,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="67">
         <v>61149</v>
       </c>
@@ -24944,7 +24955,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="68">
         <v>61154</v>
       </c>
@@ -25021,7 +25032,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="67">
         <v>61194</v>
       </c>
@@ -25098,7 +25109,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="68">
         <v>61223</v>
       </c>
@@ -25175,7 +25186,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="67">
         <v>61243</v>
       </c>
@@ -25252,7 +25263,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="68">
         <v>61263</v>
       </c>
@@ -25329,7 +25340,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="77">
         <v>61264</v>
       </c>
@@ -25406,7 +25417,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79">
         <v>61165</v>
       </c>
@@ -25483,7 +25494,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="77">
         <v>61189</v>
       </c>
@@ -25560,7 +25571,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="79">
         <v>61185</v>
       </c>
@@ -25637,7 +25648,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="77">
         <v>61195</v>
       </c>
@@ -25714,7 +25725,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="79">
         <v>61199</v>
       </c>
@@ -25791,7 +25802,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="77">
         <v>61209</v>
       </c>
@@ -25868,7 +25879,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="79">
         <v>61205</v>
       </c>
@@ -25945,7 +25956,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="77">
         <v>61235</v>
       </c>
@@ -26022,7 +26033,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="79">
         <v>61245</v>
       </c>
@@ -26099,7 +26110,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="77">
         <v>61090</v>
       </c>
@@ -26176,7 +26187,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="68">
         <v>61091</v>
       </c>
@@ -26253,7 +26264,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="67">
         <v>61092</v>
       </c>
@@ -26330,7 +26341,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="68">
         <v>61099</v>
       </c>
@@ -26407,7 +26418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="67">
         <v>61100</v>
       </c>
@@ -26484,7 +26495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="68">
         <v>61102</v>
       </c>
@@ -26561,7 +26572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="67">
         <v>61101</v>
       </c>
@@ -26638,7 +26649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="68">
         <v>61103</v>
       </c>
@@ -26715,7 +26726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="67">
         <v>61105</v>
       </c>
@@ -26792,7 +26803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="78">
         <v>61106</v>
       </c>
@@ -26869,7 +26880,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="78">
         <v>61107</v>
       </c>
@@ -26946,7 +26957,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="68">
         <v>61108</v>
       </c>
@@ -27023,7 +27034,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="67">
         <v>611087</v>
       </c>
@@ -27100,7 +27111,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="68">
         <v>61109</v>
       </c>
@@ -27177,7 +27188,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="78">
         <v>61110</v>
       </c>
@@ -27254,7 +27265,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="68">
         <v>61111</v>
       </c>
@@ -27331,7 +27342,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="67">
         <v>61112</v>
       </c>
@@ -27408,7 +27419,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="68">
         <v>61113</v>
       </c>
@@ -27485,7 +27496,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="67">
         <v>61118</v>
       </c>
@@ -27562,7 +27573,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="68">
         <v>61121</v>
       </c>
@@ -27639,7 +27650,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="67">
         <v>61123</v>
       </c>
@@ -27716,7 +27727,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="68">
         <v>61124</v>
       </c>
@@ -27793,7 +27804,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="67">
         <v>61159</v>
       </c>
@@ -27870,7 +27881,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="68">
         <v>61141</v>
       </c>
@@ -27947,7 +27958,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="67">
         <v>61142</v>
       </c>
@@ -28024,7 +28035,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="316" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="68">
         <v>61144</v>
       </c>
@@ -28101,7 +28112,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="67">
         <v>61125</v>
       </c>
@@ -28178,7 +28189,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="68">
         <v>61157</v>
       </c>
@@ -28255,7 +28266,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="67">
         <v>61188</v>
       </c>
@@ -28332,7 +28343,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="320" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="68">
         <v>61126</v>
       </c>
@@ -28409,7 +28420,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="67">
         <v>61148</v>
       </c>
@@ -28486,7 +28497,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="68">
         <v>61158</v>
       </c>
@@ -28563,7 +28574,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="67">
         <v>61127</v>
       </c>
@@ -28640,7 +28651,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="324" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="68">
         <v>61128</v>
       </c>
@@ -28717,7 +28728,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="67">
         <v>61129</v>
       </c>
@@ -28794,7 +28805,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="68">
         <v>61130</v>
       </c>
@@ -28871,7 +28882,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="67">
         <v>61132</v>
       </c>
@@ -28948,7 +28959,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="68">
         <v>61133</v>
       </c>
@@ -29025,7 +29036,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="67">
         <v>61134</v>
       </c>
@@ -29102,7 +29113,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="68">
         <v>61135</v>
       </c>
@@ -29179,7 +29190,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="67">
         <v>61136</v>
       </c>
@@ -29256,7 +29267,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="68">
         <v>61137</v>
       </c>
@@ -29333,7 +29344,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="67">
         <v>61146</v>
       </c>
@@ -29410,7 +29421,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="68">
         <v>61168</v>
       </c>
@@ -29487,7 +29498,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="67">
         <v>61147</v>
       </c>
@@ -29564,7 +29575,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="68">
         <v>61173</v>
       </c>
@@ -29641,7 +29652,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="67">
         <v>61244</v>
       </c>
@@ -29718,7 +29729,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="68">
         <v>61156</v>
       </c>
@@ -29795,7 +29806,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="67">
         <v>61167</v>
       </c>
@@ -29872,7 +29883,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="340" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="68">
         <v>61177</v>
       </c>
@@ -29949,7 +29960,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="67">
         <v>61184</v>
       </c>
@@ -30026,7 +30037,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="68">
         <v>61186</v>
       </c>
@@ -30103,7 +30114,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="67">
         <v>61187</v>
       </c>
@@ -30180,7 +30191,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="68">
         <v>61191</v>
       </c>
@@ -30257,7 +30268,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="67">
         <v>61196</v>
       </c>
@@ -30334,7 +30345,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="68">
         <v>61198</v>
       </c>
@@ -30411,7 +30422,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="67">
         <v>61145</v>
       </c>
@@ -30488,7 +30499,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="348" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="68">
         <v>61151</v>
       </c>
@@ -30565,7 +30576,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="67">
         <v>61152</v>
       </c>
@@ -30642,7 +30653,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="68">
         <v>61153</v>
       </c>
@@ -30719,7 +30730,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="67">
         <v>61160</v>
       </c>
@@ -30796,7 +30807,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="352" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="68">
         <v>61170</v>
       </c>
@@ -30873,7 +30884,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="67">
         <v>61175</v>
       </c>
@@ -30950,7 +30961,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="68">
         <v>61181</v>
       </c>
@@ -31027,7 +31038,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="67">
         <v>61182</v>
       </c>
@@ -31104,7 +31115,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="356" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="68">
         <v>61190</v>
       </c>
@@ -31181,7 +31192,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="67">
         <v>61200</v>
       </c>
@@ -31258,7 +31269,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="68">
         <v>61201</v>
       </c>
@@ -31335,7 +31346,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="67">
         <v>61215</v>
       </c>
@@ -31412,7 +31423,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="360" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="68">
         <v>61220</v>
       </c>
@@ -31489,7 +31500,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="78">
         <v>61225</v>
       </c>
@@ -31566,7 +31577,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="79">
         <v>61230</v>
       </c>
@@ -31643,7 +31654,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="67">
         <v>61290</v>
       </c>
@@ -31720,7 +31731,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="364" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="68">
         <v>61270</v>
       </c>
@@ -31797,7 +31808,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="67">
         <v>61233</v>
       </c>
@@ -31874,7 +31885,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="68">
         <v>61240</v>
       </c>
@@ -31951,7 +31962,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="67">
         <v>61250</v>
       </c>
@@ -32028,7 +32039,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="368" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="68">
         <v>61280</v>
       </c>
@@ -32105,7 +32116,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="369" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="67">
         <v>61251</v>
       </c>
@@ -32182,7 +32193,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="370" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="68">
         <v>61252</v>
       </c>
@@ -32259,7 +32270,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="371" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="67">
         <v>61255</v>
       </c>
@@ -32336,7 +32347,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="372" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="68">
         <v>62212</v>
       </c>
@@ -32413,7 +32424,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="373" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="67">
         <v>61253</v>
       </c>
@@ -32490,7 +32501,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="374" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="68">
         <v>61273</v>
       </c>
@@ -32567,7 +32578,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="375" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="67">
         <v>61256</v>
       </c>
@@ -32644,7 +32655,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="376" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="68">
         <v>62213</v>
       </c>
@@ -32721,7 +32732,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="377" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="67">
         <v>62035</v>
       </c>
@@ -32798,7 +32809,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="378" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="68">
         <v>62091</v>
       </c>
@@ -32875,7 +32886,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="379" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="67">
         <v>62210</v>
       </c>
@@ -32952,7 +32963,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="380" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="68">
         <v>92600</v>
       </c>
@@ -33029,7 +33040,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="381" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="67">
         <v>92610</v>
       </c>
@@ -33106,7 +33117,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="382" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="68">
         <v>11120</v>
       </c>
@@ -33177,7 +33188,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="383" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="67">
         <v>11807</v>
       </c>
@@ -33248,7 +33259,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="384" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="68">
         <v>49800</v>
       </c>
@@ -33325,7 +33336,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="385" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="67">
         <v>61700</v>
       </c>
@@ -33402,7 +33413,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="386" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="68">
         <v>61016</v>
       </c>
@@ -33479,7 +33490,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="67">
         <v>43800</v>
       </c>
@@ -33558,7 +33569,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="68">
         <v>44011</v>
       </c>
@@ -33635,7 +33646,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="389" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="67">
         <v>11705</v>
       </c>
@@ -33706,7 +33717,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="390" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="68">
         <v>49900</v>
       </c>
@@ -33783,7 +33794,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="391" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="67">
         <v>26011</v>
       </c>
@@ -33854,7 +33865,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="392" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="68">
         <v>26061</v>
       </c>
@@ -33925,7 +33936,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="393" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="67">
         <v>26012</v>
       </c>
@@ -33996,7 +34007,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="394" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="68">
         <v>53220</v>
       </c>
@@ -34063,7 +34074,7 @@
       <c r="Z394" s="6"/>
       <c r="AA394" s="86"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="67">
         <v>53209</v>
       </c>
@@ -34130,7 +34141,7 @@
       <c r="Z395" s="12"/>
       <c r="AA395" s="87"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="68">
         <v>61095</v>
       </c>
@@ -34197,7 +34208,7 @@
       <c r="Z396" s="6"/>
       <c r="AA396" s="86"/>
     </row>
-    <row r="397" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="67">
         <v>99999</v>
       </c>
@@ -34264,7 +34275,7 @@
       <c r="Z397" s="12"/>
       <c r="AA397" s="87"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="68">
         <v>81202</v>
       </c>
@@ -34331,7 +34342,7 @@
       <c r="Z398" s="62"/>
       <c r="AA398" s="88"/>
     </row>
-    <row r="399" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="67">
         <v>92000</v>
       </c>
@@ -34408,7 +34419,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="400" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="68">
         <v>61138</v>
       </c>
@@ -34485,7 +34496,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="67">
         <v>61164</v>
       </c>
@@ -34562,7 +34573,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="68">
         <v>11113</v>
       </c>
@@ -34633,7 +34644,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="67">
         <v>11160</v>
       </c>
@@ -34704,7 +34715,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="68">
         <v>11710</v>
       </c>
@@ -34775,7 +34786,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="67">
         <v>17</v>
       </c>
@@ -34846,7 +34857,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="68">
         <v>18</v>
       </c>
@@ -34917,7 +34928,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="67">
         <v>22220</v>
       </c>
@@ -34988,7 +34999,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="408" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="68">
         <v>30700</v>
       </c>
@@ -35059,7 +35070,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="67">
         <v>4</v>
       </c>
@@ -35130,7 +35141,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="68">
         <v>53203</v>
       </c>
@@ -35207,7 +35218,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="411" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="67">
         <v>58101</v>
       </c>
@@ -35284,7 +35295,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="412" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="68">
         <v>61018</v>
       </c>
@@ -35361,7 +35372,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="67">
         <v>61035</v>
       </c>
@@ -35438,7 +35449,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="68">
         <v>61139</v>
       </c>
@@ -35515,7 +35526,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="67">
         <v>9999</v>
       </c>
@@ -35586,7 +35597,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="416" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="68">
         <v>1</v>
       </c>
@@ -35657,7 +35668,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="417" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="67">
         <v>2</v>
       </c>
@@ -35728,7 +35739,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="418" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="68">
         <v>3</v>
       </c>
@@ -35799,7 +35810,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="419" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="67">
         <v>5</v>
       </c>
@@ -35870,7 +35881,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="420" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="68">
         <v>7</v>
       </c>
@@ -35941,7 +35952,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="421" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="67">
         <v>8</v>
       </c>
@@ -36012,7 +36023,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="422" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="68">
         <v>10</v>
       </c>
@@ -36083,7 +36094,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="423" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="67">
         <v>15</v>
       </c>
@@ -36154,7 +36165,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="424" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="68">
         <v>16</v>
       </c>
@@ -36225,7 +36236,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="425" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="67">
         <v>21</v>
       </c>
@@ -36296,7 +36307,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="426" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="68">
         <v>22</v>
       </c>
@@ -36367,7 +36378,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="427" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="67">
         <v>111110</v>
       </c>
@@ -36438,7 +36449,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="428" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="68">
         <v>111111</v>
       </c>
@@ -36509,7 +36520,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="429" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="67">
         <v>111119</v>
       </c>
@@ -36580,7 +36591,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="430" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="68">
         <v>111120</v>
       </c>
@@ -36651,7 +36662,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="431" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="67">
         <v>111118</v>
       </c>
@@ -36722,7 +36733,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="432" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="68">
         <v>111121</v>
       </c>
@@ -36793,7 +36804,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="433" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="67">
         <v>61104</v>
       </c>
@@ -36870,7 +36881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="68">
         <v>61117</v>
       </c>
@@ -36947,7 +36958,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="435" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="67">
         <v>81400</v>
       </c>
@@ -37024,7 +37035,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="436" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="68">
         <v>6</v>
       </c>
@@ -37095,7 +37106,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="437" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="70">
         <v>4111021</v>
       </c>
@@ -37174,7 +37185,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="69">
         <v>4111020</v>
       </c>
@@ -37253,7 +37264,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="70">
         <v>4111041</v>
       </c>
@@ -37332,7 +37343,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="69">
         <v>4111040</v>
       </c>
@@ -37411,7 +37422,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="441" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="70">
         <v>4111031</v>
       </c>
@@ -37490,7 +37501,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="69">
         <v>4111030</v>
       </c>
@@ -37569,7 +37580,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="443" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="70">
         <v>4111061</v>
       </c>
@@ -37648,7 +37659,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="69">
         <v>4111060</v>
       </c>
@@ -37727,7 +37738,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="445" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="70">
         <v>4111051</v>
       </c>
@@ -37806,7 +37817,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="69">
         <v>4111050</v>
       </c>
@@ -37885,7 +37896,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="447" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="70">
         <v>4111071</v>
       </c>
@@ -37964,7 +37975,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="69">
         <v>4111070</v>
       </c>
@@ -38043,7 +38054,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="70">
         <v>4111001</v>
       </c>
@@ -38122,7 +38133,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="69">
         <v>4111000</v>
       </c>
@@ -38201,7 +38212,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="451" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="70">
         <v>41110101</v>
       </c>
@@ -38280,7 +38291,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="69">
         <v>41110100</v>
       </c>
@@ -38359,7 +38370,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="70">
         <v>4115021</v>
       </c>
@@ -38438,7 +38449,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="69">
         <v>4115020</v>
       </c>
@@ -38517,7 +38528,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="70">
         <v>4115041</v>
       </c>
@@ -38596,7 +38607,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="69">
         <v>4115040</v>
       </c>
@@ -38675,7 +38686,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="70">
         <v>4115031</v>
       </c>
@@ -38754,7 +38765,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="69">
         <v>4115030</v>
       </c>
@@ -38833,7 +38844,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="70">
         <v>4115061</v>
       </c>
@@ -38912,7 +38923,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="69">
         <v>4115060</v>
       </c>
@@ -38991,7 +39002,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="70">
         <v>4115051</v>
       </c>
@@ -39070,7 +39081,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="69">
         <v>4115050</v>
       </c>
@@ -39149,7 +39160,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="463" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="70">
         <v>4115071</v>
       </c>
@@ -39228,7 +39239,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="69">
         <v>4115070</v>
       </c>
@@ -39307,7 +39318,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="70">
         <v>4115001</v>
       </c>
@@ -39386,7 +39397,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="69">
         <v>4115000</v>
       </c>
@@ -39465,7 +39476,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="70">
         <v>41150101</v>
       </c>
@@ -39544,7 +39555,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="69">
         <v>41150100</v>
       </c>
@@ -39623,7 +39634,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="70">
         <v>4112021</v>
       </c>
@@ -39702,7 +39713,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="69">
         <v>4112020</v>
       </c>
@@ -39781,7 +39792,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="70">
         <v>4112041</v>
       </c>
@@ -39860,7 +39871,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="69">
         <v>4112040</v>
       </c>
@@ -39939,7 +39950,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="70">
         <v>4112031</v>
       </c>
@@ -40018,7 +40029,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="69">
         <v>4112030</v>
       </c>
@@ -40097,7 +40108,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="70">
         <v>4112061</v>
       </c>
@@ -40176,7 +40187,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="69">
         <v>4112060</v>
       </c>
@@ -40255,7 +40266,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="70">
         <v>4112051</v>
       </c>
@@ -40334,7 +40345,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="69">
         <v>4112050</v>
       </c>
@@ -40413,7 +40424,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="70">
         <v>4112071</v>
       </c>
@@ -40492,7 +40503,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="69">
         <v>4112070</v>
       </c>
@@ -40571,7 +40582,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="481" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="70">
         <v>4112001</v>
       </c>
@@ -40650,7 +40661,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="69">
         <v>4112000</v>
       </c>
@@ -40729,7 +40740,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="70">
         <v>41120101</v>
       </c>
@@ -40808,7 +40819,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="69">
         <v>41120100</v>
       </c>
@@ -40887,7 +40898,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="70">
         <v>4113021</v>
       </c>
@@ -40966,7 +40977,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="69">
         <v>4113020</v>
       </c>
@@ -41045,7 +41056,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="70">
         <v>4113041</v>
       </c>
@@ -41124,7 +41135,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="69">
         <v>4113040</v>
       </c>
@@ -41203,7 +41214,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="70">
         <v>4113031</v>
       </c>
@@ -41282,7 +41293,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="69">
         <v>4113030</v>
       </c>
@@ -41361,7 +41372,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="70">
         <v>4113061</v>
       </c>
@@ -41440,7 +41451,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="69">
         <v>4113060</v>
       </c>
@@ -41519,7 +41530,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="70">
         <v>4113051</v>
       </c>
@@ -41598,7 +41609,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="69">
         <v>4113050</v>
       </c>
@@ -41677,7 +41688,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="70">
         <v>4113071</v>
       </c>
@@ -41756,7 +41767,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="69">
         <v>4113070</v>
       </c>
@@ -41835,7 +41846,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="70">
         <v>4113001</v>
       </c>
@@ -41914,7 +41925,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="69">
         <v>4113000</v>
       </c>
@@ -41993,7 +42004,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="70">
         <v>41130101</v>
       </c>
@@ -42072,7 +42083,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="69">
         <v>41130100</v>
       </c>
@@ -42151,7 +42162,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="501" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="70">
         <v>4114021</v>
       </c>
@@ -42230,7 +42241,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="69">
         <v>4114020</v>
       </c>
@@ -42309,7 +42320,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="503" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="70">
         <v>4114041</v>
       </c>
@@ -42388,7 +42399,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="69">
         <v>4114040</v>
       </c>
@@ -42467,7 +42478,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="505" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="70">
         <v>4114031</v>
       </c>
@@ -42546,7 +42557,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="69">
         <v>4114030</v>
       </c>
@@ -42625,7 +42636,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="507" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="70">
         <v>4114061</v>
       </c>
@@ -42704,7 +42715,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="69">
         <v>4114060</v>
       </c>
@@ -42783,7 +42794,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="509" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="70">
         <v>4114051</v>
       </c>
@@ -42862,7 +42873,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="69">
         <v>4114050</v>
       </c>
@@ -42941,7 +42952,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="511" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="70">
         <v>4114071</v>
       </c>
@@ -43020,7 +43031,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="69">
         <v>4114070</v>
       </c>
@@ -43099,7 +43110,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="513" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="70">
         <v>4114001</v>
       </c>
@@ -43178,7 +43189,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="69">
         <v>4114000</v>
       </c>
@@ -43257,7 +43268,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="515" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="70">
         <v>41140101</v>
       </c>
@@ -43336,7 +43347,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="68">
         <v>41140100</v>
       </c>
@@ -43415,7 +43426,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="517" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="70">
         <v>4111091</v>
       </c>
@@ -43494,7 +43505,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="69">
         <v>4111090</v>
       </c>
@@ -43573,7 +43584,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="519" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="70">
         <v>4115091</v>
       </c>
@@ -43652,7 +43663,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="69">
         <v>4115090</v>
       </c>
@@ -43731,7 +43742,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="521" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="70">
         <v>4112091</v>
       </c>
@@ -43810,7 +43821,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="69">
         <v>4112090</v>
       </c>
@@ -43889,7 +43900,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="523" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="70">
         <v>4113091</v>
       </c>
@@ -43968,7 +43979,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="69">
         <v>4113090</v>
       </c>
@@ -44047,7 +44058,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="525" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="70">
         <v>4114091</v>
       </c>
@@ -44126,7 +44137,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="68">
         <v>4114090</v>
       </c>
@@ -44205,7 +44216,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="527" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="67">
         <v>61028</v>
       </c>
@@ -44282,7 +44293,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="528" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="68">
         <v>61038</v>
       </c>
@@ -44359,7 +44370,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="529" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="70">
         <v>4116021</v>
       </c>
@@ -44438,7 +44449,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="69">
         <v>4116020</v>
       </c>
@@ -44517,7 +44528,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="531" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="70">
         <v>4116041</v>
       </c>
@@ -44596,7 +44607,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="69">
         <v>4116040</v>
       </c>
@@ -44675,7 +44686,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="533" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="70">
         <v>4116031</v>
       </c>
@@ -44754,7 +44765,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="69">
         <v>4116030</v>
       </c>
@@ -44833,7 +44844,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="535" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="70">
         <v>4116061</v>
       </c>
@@ -44912,7 +44923,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="69">
         <v>4116060</v>
       </c>
@@ -44991,7 +45002,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="537" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="70">
         <v>4116051</v>
       </c>
@@ -45070,7 +45081,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="69">
         <v>4116050</v>
       </c>
@@ -45149,7 +45160,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="539" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="70">
         <v>4116071</v>
       </c>
@@ -45228,7 +45239,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="69">
         <v>4116070</v>
       </c>
@@ -45307,7 +45318,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="541" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="70">
         <v>4116001</v>
       </c>
@@ -45386,7 +45397,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="69">
         <v>4116000</v>
       </c>
@@ -45465,7 +45476,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="70">
         <v>41160101</v>
       </c>
@@ -45544,7 +45555,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="69">
         <v>41160100</v>
       </c>
@@ -45623,7 +45634,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="545" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="70">
         <v>41160110</v>
       </c>
@@ -45702,7 +45713,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="546" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="69">
         <v>41160111</v>
       </c>
@@ -45781,7 +45792,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="547" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="70">
         <v>4116091</v>
       </c>
@@ -45860,7 +45871,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="68">
         <v>4116090</v>
       </c>
@@ -45939,7 +45950,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="549" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="70">
         <v>41160</v>
       </c>
@@ -46018,7 +46029,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="69">
         <v>41120110</v>
       </c>
@@ -46097,7 +46108,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="551" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="70">
         <v>41120111</v>
       </c>
@@ -46176,7 +46187,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="69">
         <v>41130110</v>
       </c>
@@ -46255,7 +46266,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="553" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="70">
         <v>41130111</v>
       </c>
@@ -46334,7 +46345,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="69">
         <v>41140110</v>
       </c>
@@ -46413,7 +46424,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="555" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="70">
         <v>41140111</v>
       </c>
@@ -46492,7 +46503,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="69">
         <v>41150111</v>
       </c>
@@ -46571,7 +46582,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="70">
         <v>41150110</v>
       </c>
@@ -46650,7 +46661,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="558" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="69">
         <v>61258</v>
       </c>
@@ -46727,7 +46738,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="559" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="70">
         <v>10020</v>
       </c>
@@ -46798,7 +46809,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="560" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="69">
         <v>41110110</v>
       </c>
@@ -46877,7 +46888,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="95">
         <v>41110111</v>
       </c>
